--- a/02table/TableS2_B2_loci.xlsx
+++ b/02table/TableS2_B2_loci.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A24DF-9D90-4440-A492-C6532F16F69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF57F3-D50B-D746-9131-673DF0DDF1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33660" yWindow="7300" windowWidth="31500" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     </r>
   </si>
   <si>
-    <t>Table S2. Balanced loci detected in sunflower.</t>
+    <t>Table S2. Balanced loci detected in wild, landrace, and modern sunflower groups.</t>
   </si>
 </sst>
 </file>
@@ -430,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="B523" sqref="B523"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
